--- a/data/output/Cheyette/swaption5Y5Y/m0/Swaption_5Y5Y2015-06-24 11-33.xlsx
+++ b/data/output/Cheyette/swaption5Y5Y/m0/Swaption_5Y5Y2015-06-24 11-33.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Swaption_5Y5Y2015-06-24 11-33" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -250,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +428,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -591,10 +597,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -870,25 +878,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100304384"/>
-        <c:axId val="100305920"/>
+        <c:axId val="141367936"/>
+        <c:axId val="71676288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100304384"/>
+        <c:axId val="141367936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100305920"/>
+        <c:crossAx val="71676288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100305920"/>
+        <c:axId val="71676288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +904,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100304384"/>
+        <c:crossAx val="141367936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,7 +917,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1237,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1469,10 +1477,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>1.6095999999999999</v>
       </c>
     </row>
